--- a/api_handler_app/Habile_Investak_API_Dictionary_Local.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary_Local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="8" r:id="rId1"/>
@@ -3950,6 +3950,9 @@
     <t>logout/</t>
   </si>
   <si>
+    <t>http://127.0.0.1:8000/</t>
+  </si>
+  <si>
     <t>N,Y</t>
   </si>
   <si>
@@ -3969,9 +3972,6 @@
   </si>
   <si>
     <t>Not_Ok,None</t>
-  </si>
-  <si>
-    <t>http://52.43.99.16:8000/</t>
   </si>
 </sst>
 </file>
@@ -9047,7 +9047,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9128,7 +9128,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="12"/>
       <c r="K2" s="44" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="L2" s="68" t="s">
         <v>1236</v>
@@ -9222,11 +9222,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12849,11 +12849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G106" sqref="G106"/>
+      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14265,7 +14265,7 @@
         <v>63</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>1161</v>
@@ -19529,7 +19529,7 @@
         <v>947</v>
       </c>
       <c r="G126" s="78" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H126" s="78"/>
       <c r="I126" s="79"/>
@@ -22085,7 +22085,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -22672,7 +22672,7 @@
         <v>63</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24">
@@ -27533,7 +27533,7 @@
         <v>54</v>
       </c>
       <c r="D134" s="72" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E134" s="72"/>
       <c r="F134" s="72" t="s">
@@ -27552,7 +27552,7 @@
         <v>55</v>
       </c>
       <c r="D135" s="72" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E135" s="72"/>
       <c r="F135" s="72" t="s">
@@ -27571,7 +27571,7 @@
         <v>56</v>
       </c>
       <c r="D136" s="72" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E136" s="72"/>
       <c r="F136" s="72" t="s">

--- a/api_handler_app/Habile_Investak_API_Dictionary_Local.xlsx
+++ b/api_handler_app/Habile_Investak_API_Dictionary_Local.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="8" r:id="rId1"/>
@@ -3950,28 +3950,28 @@
     <t>logout/</t>
   </si>
   <si>
+    <t>N,Y</t>
+  </si>
+  <si>
+    <t>isin2</t>
+  </si>
+  <si>
+    <t>isin1</t>
+  </si>
+  <si>
+    <t>Series1</t>
+  </si>
+  <si>
+    <t>DAteTime</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>Not_Ok,None</t>
+  </si>
+  <si>
     <t>http://127.0.0.1:8000/</t>
-  </si>
-  <si>
-    <t>N,Y</t>
-  </si>
-  <si>
-    <t>isin2</t>
-  </si>
-  <si>
-    <t>isin1</t>
-  </si>
-  <si>
-    <t>Series1</t>
-  </si>
-  <si>
-    <t>DAteTime</t>
-  </si>
-  <si>
-    <t>access_token</t>
-  </si>
-  <si>
-    <t>Not_Ok,None</t>
   </si>
 </sst>
 </file>
@@ -7751,7 +7751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9047,7 +9047,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:L4"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9060,7 +9060,7 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
     <col min="12" max="12" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9128,7 +9128,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="12"/>
       <c r="K2" s="44" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="L2" s="68" t="s">
         <v>1236</v>
@@ -9223,7 +9223,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
@@ -10659,7 +10659,7 @@
   <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12849,11 +12849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14265,7 +14265,7 @@
         <v>63</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>1161</v>
@@ -16088,11 +16088,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18558,7 +18558,7 @@
       <c r="J90" s="79"/>
       <c r="K90" s="78"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="80">
         <v>101</v>
       </c>
@@ -18587,7 +18587,7 @@
       <c r="J91" s="81"/>
       <c r="K91" s="80"/>
     </row>
-    <row r="92" spans="1:11" ht="24">
+    <row r="92" spans="1:11" ht="24" hidden="1">
       <c r="A92" s="78">
         <v>102</v>
       </c>
@@ -18614,7 +18614,7 @@
       <c r="J92" s="79"/>
       <c r="K92" s="78"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" hidden="1">
       <c r="A93" s="80">
         <v>103</v>
       </c>
@@ -18643,7 +18643,7 @@
       <c r="J93" s="81"/>
       <c r="K93" s="80"/>
     </row>
-    <row r="94" spans="1:11" ht="24">
+    <row r="94" spans="1:11" ht="24" hidden="1">
       <c r="A94" s="78">
         <v>104</v>
       </c>
@@ -18670,7 +18670,7 @@
       <c r="J94" s="79"/>
       <c r="K94" s="78"/>
     </row>
-    <row r="95" spans="1:11" hidden="1">
+    <row r="95" spans="1:11">
       <c r="A95" s="80">
         <v>105</v>
       </c>
@@ -18699,7 +18699,7 @@
       <c r="J95" s="81"/>
       <c r="K95" s="80"/>
     </row>
-    <row r="96" spans="1:11" ht="24" hidden="1">
+    <row r="96" spans="1:11" ht="24">
       <c r="A96" s="78">
         <v>106</v>
       </c>
@@ -18726,7 +18726,7 @@
       <c r="J96" s="79"/>
       <c r="K96" s="78"/>
     </row>
-    <row r="97" spans="1:11" ht="24" hidden="1">
+    <row r="97" spans="1:11" ht="24">
       <c r="A97" s="80">
         <v>107</v>
       </c>
@@ -18753,7 +18753,7 @@
       <c r="J97" s="81"/>
       <c r="K97" s="80"/>
     </row>
-    <row r="98" spans="1:11" ht="24" hidden="1">
+    <row r="98" spans="1:11" ht="24">
       <c r="A98" s="78">
         <v>108</v>
       </c>
@@ -18780,7 +18780,7 @@
       <c r="J98" s="79"/>
       <c r="K98" s="78"/>
     </row>
-    <row r="99" spans="1:11" ht="24" hidden="1">
+    <row r="99" spans="1:11" ht="24">
       <c r="A99" s="80">
         <v>109</v>
       </c>
@@ -18807,7 +18807,7 @@
       <c r="J99" s="81"/>
       <c r="K99" s="80"/>
     </row>
-    <row r="100" spans="1:11" ht="24" hidden="1">
+    <row r="100" spans="1:11" ht="24">
       <c r="A100" s="78">
         <v>110</v>
       </c>
@@ -18834,7 +18834,7 @@
       <c r="J100" s="79"/>
       <c r="K100" s="78"/>
     </row>
-    <row r="101" spans="1:11" hidden="1">
+    <row r="101" spans="1:11">
       <c r="A101" s="80">
         <v>111</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>947</v>
       </c>
       <c r="G126" s="78" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H126" s="78"/>
       <c r="I126" s="79"/>
@@ -22085,7 +22085,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -22102,8 +22102,7 @@
   <autoFilter ref="A1:K223">
     <filterColumn colId="1">
       <filters>
-        <filter val="CancelOrder"/>
-        <filter val="ModifyOrder"/>
+        <filter val="Order History"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -22672,7 +22671,7 @@
         <v>63</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24">
@@ -24700,10 +24699,10 @@
   <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B136"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27533,7 +27532,7 @@
         <v>54</v>
       </c>
       <c r="D134" s="72" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E134" s="72"/>
       <c r="F134" s="72" t="s">
@@ -27552,7 +27551,7 @@
         <v>55</v>
       </c>
       <c r="D135" s="72" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E135" s="72"/>
       <c r="F135" s="72" t="s">
@@ -27571,7 +27570,7 @@
         <v>56</v>
       </c>
       <c r="D136" s="72" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E136" s="72"/>
       <c r="F136" s="72" t="s">
